--- a/AsociatieProprietari/ReportingFolder/Summary_Rerpot.xlsx
+++ b/AsociatieProprietari/ReportingFolder/Summary_Rerpot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Invoice</t>
   </si>
@@ -40,28 +40,58 @@
     <t>Remaining</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018-05-30</t>
   </si>
   <si>
     <t>500.0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2018-02-01</t>
-  </si>
-  <si>
-    <t>250.0</t>
-  </si>
-  <si>
-    <t>2018-05-29</t>
-  </si>
-  <si>
-    <t>750.0</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1875.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1677.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>4051.0</t>
+  </si>
+  <si>
+    <t>2077.0</t>
+  </si>
+  <si>
+    <t>1974.0</t>
   </si>
 </sst>
 </file>
@@ -436,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,22 +531,22 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -528,6 +558,37 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
